--- a/Document/Map/基于定位技术开发.xlsx
+++ b/Document/Map/基于定位技术开发.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="11100" yWindow="900" windowWidth="25600" windowHeight="19020" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15600" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="定位原理" sheetId="1" r:id="rId1"/>
     <sheet name="参考" sheetId="3" r:id="rId2"/>
     <sheet name="ios_环境配置" sheetId="2" r:id="rId3"/>
     <sheet name="iOS_自带的定位与地图框架" sheetId="4" r:id="rId4"/>
+    <sheet name="注意事项" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>主流手机定位方式</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -105,13 +106,46 @@
   <si>
     <t>user:159********</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户隐私的保护</t>
+  </si>
+  <si>
+    <t>1 权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要想获得用户的位置,必须经过用户批准授权</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一次,系统会帮助提示用户,一旦用户选择了“Don’t Allow”，意味着应用以后就无法使用定位功能，而且,以后不会帮我们进行提醒。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因此在程序中应该进行判断，如果发现自己的定位服务没有打开，那么应该提醒用户打开定位服务功能。</t>
+  </si>
+  <si>
+    <t>可以通过CLLocationManager的(BOOL)locationServicesEnabled 检查,并且由我们的程序内部提醒用户进行设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 获取用户授权是的友好提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以在Info.plist中设置NSLocationUsageDescription说明定位的目的(Privacy - Location Usage Description)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.tuicool.com/articles/VN3632</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -158,6 +192,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -185,13 +228,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
@@ -589,7 +633,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
@@ -726,4 +770,70 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:C19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="4" spans="2:3">
+      <c r="B4" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="C19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/Document/Map/基于定位技术开发.xlsx
+++ b/Document/Map/基于定位技术开发.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15600" tabRatio="500" activeTab="4"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>主流手机定位方式</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -139,6 +139,13 @@
   </si>
   <si>
     <t>http://www.tuicool.com/articles/VN3632</t>
+  </si>
+  <si>
+    <t>iOS 8之后强制先获取用户的授权</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.devstore.cn/new/newInfo/1083.html</t>
   </si>
 </sst>
 </file>
@@ -774,11 +781,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:C19"/>
+  <dimension ref="B4:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
@@ -825,6 +830,16 @@
     <row r="19" spans="2:3">
       <c r="C19" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="C25" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
